--- a/2023/08芯片升级规划/SNC Gen2 IC FeaturesList-v0.1.xlsx
+++ b/2023/08芯片升级规划/SNC Gen2 IC FeaturesList-v0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\08芯片升级规划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12999CA1-AA1D-45D8-ADBF-6B002E52003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF184DD1-557C-4655-B70F-0E17A882032E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27240" yWindow="2520" windowWidth="23016" windowHeight="12480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
   <si>
     <t>BT RF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -531,7 +531,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支持</t>
+    <t>Audio Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核/CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32位浮点 RISC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cadence HiFi3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256bit OTP efuse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,13 +815,25 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -808,18 +852,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1269,13 +1301,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5">
@@ -1302,83 +1334,92 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3992C8E4-E084-4C6D-89F5-ADC92127C47B}">
-  <dimension ref="E2:M62"/>
+  <dimension ref="B2:M64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="1.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" style="4" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="28.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="4" customWidth="1"/>
     <col min="7" max="8" width="15.88671875" style="4" customWidth="1"/>
     <col min="9" max="13" width="16.21875" style="4" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E2" s="17"/>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="18" t="s">
+    <row r="2" spans="3:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C2" s="20"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="5:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="17"/>
-      <c r="F3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="26" t="s">
+    <row r="3" spans="3:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="20"/>
+      <c r="D3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
       <c r="J3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="5:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+    <row r="4" spans="3:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="20"/>
+      <c r="D4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1387,13 +1428,15 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
     </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>66</v>
-      </c>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1402,13 +1445,15 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>86</v>
-      </c>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1417,13 +1462,15 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="6" t="s">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>86</v>
       </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1432,13 +1479,15 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>65</v>
-      </c>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1447,13 +1496,15 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>5</v>
-      </c>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1462,13 +1513,15 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>67</v>
-      </c>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1477,13 +1530,15 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>68</v>
-      </c>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1492,13 +1547,15 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>63</v>
-      </c>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1507,13 +1564,15 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>9</v>
-      </c>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1522,13 +1581,15 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>104</v>
-      </c>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1537,13 +1598,15 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>64</v>
-      </c>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1552,13 +1615,15 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="5:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="E17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>105</v>
-      </c>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1567,13 +1632,18 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="5:13" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="E18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>100</v>
-      </c>
+    <row r="18" spans="2:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1582,13 +1652,15 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>101</v>
-      </c>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1597,13 +1669,15 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="5:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="E20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>106</v>
-      </c>
+    <row r="20" spans="2:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1612,13 +1686,11 @@
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="5:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="E21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>89</v>
-      </c>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1627,13 +1699,15 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="5:13" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="E22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>107</v>
-      </c>
+    <row r="22" spans="2:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1642,13 +1716,15 @@
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="5:13" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="E23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>109</v>
-      </c>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1657,13 +1733,15 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="5:13" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="E24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>108</v>
-      </c>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -1672,13 +1750,15 @@
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>97</v>
-      </c>
+    <row r="25" spans="2:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1687,13 +1767,15 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="5:13" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>96</v>
-      </c>
+    <row r="26" spans="2:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -1702,13 +1784,15 @@
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>110</v>
-      </c>
+    <row r="27" spans="2:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -1717,13 +1801,15 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>110</v>
-      </c>
+    <row r="28" spans="2:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1732,13 +1818,15 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>110</v>
-      </c>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -1747,13 +1835,15 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="7" t="s">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -1762,13 +1852,15 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E31" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -1777,13 +1869,15 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="7" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -1792,13 +1886,15 @@
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
     </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>62</v>
-      </c>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -1807,13 +1903,15 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
     </row>
-    <row r="34" spans="5:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="E34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>91</v>
-      </c>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -1822,13 +1920,15 @@
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
     </row>
-    <row r="35" spans="5:13" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="E35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>40</v>
-      </c>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -1837,13 +1937,15 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
     </row>
-    <row r="36" spans="5:13" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="E36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>41</v>
-      </c>
+    <row r="36" spans="3:13" ht="66" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -1852,13 +1954,15 @@
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
     </row>
-    <row r="37" spans="5:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="E37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>55</v>
-      </c>
+    <row r="37" spans="3:13" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -1867,13 +1971,15 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
     </row>
-    <row r="38" spans="5:13" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="E38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>92</v>
-      </c>
+    <row r="38" spans="3:13" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="C38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -1882,13 +1988,15 @@
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
     </row>
-    <row r="39" spans="5:13" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="E39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>45</v>
-      </c>
+    <row r="39" spans="3:13" ht="66" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -1897,13 +2005,15 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="5:13" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>42</v>
-      </c>
+    <row r="40" spans="3:13" ht="66" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -1912,13 +2022,15 @@
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="5:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="E41" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>44</v>
-      </c>
+    <row r="41" spans="3:13" ht="66" x14ac:dyDescent="0.25">
+      <c r="C41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -1927,13 +2039,15 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="5:13" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="E42" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>102</v>
-      </c>
+    <row r="42" spans="3:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -1942,13 +2056,15 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="5:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="E43" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>73</v>
-      </c>
+    <row r="43" spans="3:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -1957,13 +2073,15 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="5:13" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E44" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>74</v>
-      </c>
+    <row r="44" spans="3:13" ht="66" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -1972,9 +2090,13 @@
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E45" s="5" t="s">
-        <v>37</v>
+    <row r="45" spans="3:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C45" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -1985,13 +2107,15 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="5:13" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E46" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>48</v>
-      </c>
+    <row r="46" spans="3:13" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="C46" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -2000,13 +2124,13 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="5:13" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>49</v>
-      </c>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -2015,13 +2139,15 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E48" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>62</v>
-      </c>
+    <row r="48" spans="3:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -2030,13 +2156,15 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="5:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="E49" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>91</v>
-      </c>
+    <row r="49" spans="3:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -2045,13 +2173,15 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="5:13" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="E50" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>50</v>
-      </c>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C50" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -2060,13 +2190,15 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="5:13" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E51" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>51</v>
-      </c>
+    <row r="51" spans="3:13" ht="66" x14ac:dyDescent="0.25">
+      <c r="C51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -2075,13 +2207,15 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="5:13" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E52" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>52</v>
-      </c>
+    <row r="52" spans="3:13" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="C52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -2090,13 +2224,15 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="5:13" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E53" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>53</v>
-      </c>
+    <row r="53" spans="3:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -2105,9 +2241,13 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E54" s="5" t="s">
-        <v>34</v>
+    <row r="54" spans="3:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -2118,9 +2258,13 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E55" s="5" t="s">
-        <v>35</v>
+    <row r="55" spans="3:13" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="C55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -2131,13 +2275,13 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="5:13" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="E56" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>94</v>
-      </c>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C56" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -2146,13 +2290,13 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
     </row>
-    <row r="57" spans="5:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="E57" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>93</v>
-      </c>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -2161,13 +2305,15 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
     </row>
-    <row r="58" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E58" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>57</v>
-      </c>
+    <row r="58" spans="3:13" ht="92.4" x14ac:dyDescent="0.25">
+      <c r="C58" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -2176,13 +2322,15 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
     </row>
-    <row r="59" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E59" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>59</v>
-      </c>
+    <row r="59" spans="3:13" ht="66" x14ac:dyDescent="0.25">
+      <c r="C59" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -2191,13 +2339,15 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
     </row>
-    <row r="60" spans="5:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="E60" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>60</v>
-      </c>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C60" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="6"/>
+      <c r="E60" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -2206,13 +2356,15 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
     </row>
-    <row r="61" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E61" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>61</v>
-      </c>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C61" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -2221,11 +2373,15 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
     </row>
-    <row r="62" spans="5:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="E62" s="15"/>
-      <c r="F62" s="9" t="s">
-        <v>95</v>
-      </c>
+    <row r="62" spans="3:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C62" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -2234,14 +2390,46 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
     </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C63" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+    </row>
+    <row r="64" spans="3:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="C64" s="15"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="C2:C4"/>
     <mergeCell ref="G2:K2"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2274,43 +2462,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="5:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="20" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="5:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="1" t="s">
         <v>78</v>
       </c>
@@ -2323,11 +2511,11 @@
       <c r="K4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E5" s="19"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
@@ -2342,7 +2530,7 @@
       <c r="M5" s="6"/>
     </row>
     <row r="6" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E6" s="20"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2357,7 +2545,7 @@
       <c r="M6" s="6"/>
     </row>
     <row r="7" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E7" s="20"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="5" t="s">
         <v>88</v>
       </c>
@@ -2372,7 +2560,7 @@
       <c r="M7" s="6"/>
     </row>
     <row r="8" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E8" s="20"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="5" t="s">
         <v>87</v>
       </c>
@@ -2387,7 +2575,7 @@
       <c r="M8" s="6"/>
     </row>
     <row r="9" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E9" s="20"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="5" t="s">
         <v>98</v>
       </c>
@@ -2402,7 +2590,7 @@
       <c r="M9" s="6"/>
     </row>
     <row r="10" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E10" s="20"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="5" t="s">
         <v>99</v>
       </c>
@@ -2417,7 +2605,7 @@
       <c r="M10" s="6"/>
     </row>
     <row r="11" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E11" s="20"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="5" t="s">
         <v>6</v>
       </c>
@@ -2432,7 +2620,7 @@
       <c r="M11" s="6"/>
     </row>
     <row r="12" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E12" s="20"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
@@ -2447,7 +2635,7 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E13" s="20"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="5" t="s">
         <v>10</v>
       </c>
@@ -2462,7 +2650,7 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E14" s="20"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="5" t="s">
         <v>82</v>
       </c>
@@ -2477,7 +2665,7 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E15" s="20"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="5" t="s">
         <v>103</v>
       </c>
@@ -2492,7 +2680,7 @@
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="21"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="5" t="s">
         <v>83</v>
       </c>
@@ -2507,7 +2695,7 @@
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="5:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="26" t="s">
         <v>111</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -2524,7 +2712,7 @@
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="5:13" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="E18" s="23"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="5" t="s">
         <v>2</v>
       </c>
@@ -2539,7 +2727,7 @@
       <c r="M18" s="6"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E19" s="23"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="5" t="s">
         <v>11</v>
       </c>
@@ -2554,7 +2742,7 @@
       <c r="M19" s="6"/>
     </row>
     <row r="20" spans="5:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="E20" s="23"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="5" t="s">
         <v>12</v>
       </c>
@@ -2569,7 +2757,7 @@
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="5:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="E21" s="23"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="5" t="s">
         <v>13</v>
       </c>
@@ -2584,7 +2772,7 @@
       <c r="M21" s="6"/>
     </row>
     <row r="22" spans="5:13" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="E22" s="23"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="5" t="s">
         <v>14</v>
       </c>
@@ -2599,7 +2787,7 @@
       <c r="M22" s="6"/>
     </row>
     <row r="23" spans="5:13" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="E23" s="23"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="5" t="s">
         <v>26</v>
       </c>
@@ -2614,7 +2802,7 @@
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="5:13" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="E24" s="23"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="5" t="s">
         <v>1</v>
       </c>
@@ -2629,7 +2817,7 @@
       <c r="M24" s="6"/>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E25" s="23"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="5" t="s">
         <v>21</v>
       </c>
@@ -2644,7 +2832,7 @@
       <c r="M25" s="6"/>
     </row>
     <row r="26" spans="5:13" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E26" s="23"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="5" t="s">
         <v>15</v>
       </c>
@@ -2659,7 +2847,7 @@
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E27" s="23"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="5" t="s">
         <v>16</v>
       </c>
@@ -2674,7 +2862,7 @@
       <c r="M27" s="6"/>
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E28" s="23"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="5" t="s">
         <v>17</v>
       </c>
@@ -2689,7 +2877,7 @@
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E29" s="23"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="5" t="s">
         <v>70</v>
       </c>
@@ -2704,7 +2892,7 @@
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E30" s="23"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="5" t="s">
         <v>18</v>
       </c>
@@ -2719,7 +2907,7 @@
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E31" s="23"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="5" t="s">
         <v>0</v>
       </c>
@@ -2734,7 +2922,7 @@
       <c r="M31" s="6"/>
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E32" s="24"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="5" t="s">
         <v>8</v>
       </c>
@@ -2749,7 +2937,7 @@
       <c r="M32" s="6"/>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="20" t="s">
         <v>27</v>
       </c>
       <c r="F33" s="5" t="s">
@@ -2766,7 +2954,7 @@
       <c r="M33" s="6"/>
     </row>
     <row r="34" spans="5:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="E34" s="17"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="5" t="s">
         <v>20</v>
       </c>
@@ -2781,7 +2969,7 @@
       <c r="M34" s="6"/>
     </row>
     <row r="35" spans="5:13" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="E35" s="17"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="5" t="s">
         <v>38</v>
       </c>
@@ -2796,7 +2984,7 @@
       <c r="M35" s="6"/>
     </row>
     <row r="36" spans="5:13" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="E36" s="17"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="5" t="s">
         <v>19</v>
       </c>
@@ -2811,7 +2999,7 @@
       <c r="M36" s="6"/>
     </row>
     <row r="37" spans="5:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="E37" s="17"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="5" t="s">
         <v>90</v>
       </c>
@@ -2826,7 +3014,7 @@
       <c r="M37" s="6"/>
     </row>
     <row r="38" spans="5:13" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="E38" s="17"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="5" t="s">
         <v>33</v>
       </c>
@@ -2841,7 +3029,7 @@
       <c r="M38" s="6"/>
     </row>
     <row r="39" spans="5:13" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="E39" s="17"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="5" t="s">
         <v>35</v>
       </c>
@@ -2856,7 +3044,7 @@
       <c r="M39" s="6"/>
     </row>
     <row r="40" spans="5:13" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E40" s="17"/>
+      <c r="E40" s="20"/>
       <c r="F40" s="5" t="s">
         <v>39</v>
       </c>
@@ -2871,7 +3059,7 @@
       <c r="M40" s="6"/>
     </row>
     <row r="41" spans="5:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="E41" s="17"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="5" t="s">
         <v>43</v>
       </c>
@@ -2886,7 +3074,7 @@
       <c r="M41" s="6"/>
     </row>
     <row r="42" spans="5:13" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="E42" s="17"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="5" t="s">
         <v>36</v>
       </c>
@@ -2901,7 +3089,7 @@
       <c r="M42" s="6"/>
     </row>
     <row r="43" spans="5:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="E43" s="17"/>
+      <c r="E43" s="20"/>
       <c r="F43" s="5" t="s">
         <v>71</v>
       </c>
@@ -2916,7 +3104,7 @@
       <c r="M43" s="6"/>
     </row>
     <row r="44" spans="5:13" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E44" s="17"/>
+      <c r="E44" s="20"/>
       <c r="F44" s="5" t="s">
         <v>72</v>
       </c>
@@ -2931,7 +3119,7 @@
       <c r="M44" s="6"/>
     </row>
     <row r="45" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E45" s="17"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="5" t="s">
         <v>37</v>
       </c>
@@ -2944,7 +3132,7 @@
       <c r="M45" s="6"/>
     </row>
     <row r="46" spans="5:13" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E46" s="17"/>
+      <c r="E46" s="20"/>
       <c r="F46" s="5" t="s">
         <v>69</v>
       </c>
@@ -2959,7 +3147,7 @@
       <c r="M46" s="6"/>
     </row>
     <row r="47" spans="5:13" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E47" s="17"/>
+      <c r="E47" s="20"/>
       <c r="F47" s="5" t="s">
         <v>47</v>
       </c>
@@ -2974,7 +3162,7 @@
       <c r="M47" s="6"/>
     </row>
     <row r="48" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F48" s="5" t="s">
@@ -2991,7 +3179,7 @@
       <c r="M48" s="6"/>
     </row>
     <row r="49" spans="5:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="E49" s="17"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="5" t="s">
         <v>30</v>
       </c>
@@ -3006,7 +3194,7 @@
       <c r="M49" s="6"/>
     </row>
     <row r="50" spans="5:13" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="E50" s="17"/>
+      <c r="E50" s="20"/>
       <c r="F50" s="5" t="s">
         <v>32</v>
       </c>
@@ -3021,7 +3209,7 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="5:13" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E51" s="17"/>
+      <c r="E51" s="20"/>
       <c r="F51" s="5" t="s">
         <v>19</v>
       </c>
@@ -3036,7 +3224,7 @@
       <c r="M51" s="6"/>
     </row>
     <row r="52" spans="5:13" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E52" s="17"/>
+      <c r="E52" s="20"/>
       <c r="F52" s="5" t="s">
         <v>33</v>
       </c>
@@ -3051,7 +3239,7 @@
       <c r="M52" s="6"/>
     </row>
     <row r="53" spans="5:13" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="E53" s="17"/>
+      <c r="E53" s="20"/>
       <c r="F53" s="5" t="s">
         <v>54</v>
       </c>
@@ -3066,7 +3254,7 @@
       <c r="M53" s="6"/>
     </row>
     <row r="54" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E54" s="17"/>
+      <c r="E54" s="20"/>
       <c r="F54" s="5" t="s">
         <v>34</v>
       </c>
@@ -3079,7 +3267,7 @@
       <c r="M54" s="6"/>
     </row>
     <row r="55" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E55" s="17"/>
+      <c r="E55" s="20"/>
       <c r="F55" s="5" t="s">
         <v>35</v>
       </c>
@@ -3092,7 +3280,7 @@
       <c r="M55" s="6"/>
     </row>
     <row r="56" spans="5:13" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="E56" s="17"/>
+      <c r="E56" s="20"/>
       <c r="F56" s="5" t="s">
         <v>36</v>
       </c>
@@ -3107,7 +3295,7 @@
       <c r="M56" s="6"/>
     </row>
     <row r="57" spans="5:13" ht="66" x14ac:dyDescent="0.25">
-      <c r="E57" s="17"/>
+      <c r="E57" s="20"/>
       <c r="F57" s="5" t="s">
         <v>46</v>
       </c>
@@ -3122,7 +3310,7 @@
       <c r="M57" s="6"/>
     </row>
     <row r="58" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E58" s="17"/>
+      <c r="E58" s="20"/>
       <c r="F58" s="5" t="s">
         <v>56</v>
       </c>
@@ -3137,7 +3325,7 @@
       <c r="M58" s="6"/>
     </row>
     <row r="59" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E59" s="17"/>
+      <c r="E59" s="20"/>
       <c r="F59" s="5" t="s">
         <v>58</v>
       </c>
@@ -3152,7 +3340,7 @@
       <c r="M59" s="6"/>
     </row>
     <row r="60" spans="5:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="E60" s="17"/>
+      <c r="E60" s="20"/>
       <c r="F60" s="5" t="s">
         <v>43</v>
       </c>
@@ -3167,7 +3355,7 @@
       <c r="M60" s="6"/>
     </row>
     <row r="61" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E61" s="17"/>
+      <c r="E61" s="20"/>
       <c r="F61" s="5" t="s">
         <v>29</v>
       </c>
@@ -3182,10 +3370,10 @@
       <c r="M61" s="6"/>
     </row>
     <row r="62" spans="5:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="16"/>
+      <c r="F62" s="22"/>
       <c r="G62" s="9" t="s">
         <v>95</v>
       </c>
